--- a/Schuhart's Control Cards/контрольные карты шухарта.xlsx
+++ b/Schuhart's Control Cards/контрольные карты шухарта.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malickijaleksandr/Desktop/intelligence_systems/Schuhart's Control Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FDBC678-F26B-7E49-A3C8-C8459BFA1F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0844372A-4944-5D4C-BDEF-A17B19E4F8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -136,6 +136,10 @@
     <t xml:space="preserve">Accept -- терминальный символ если </t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -154,33 +158,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Видимо в период 14.09.2011 по 14.02.2013 все росло, может кампания только начала жить, а потом что-то произошло, связи с этим акции упали и у кампании пошли убытки, хотя под конец удалось немного стабилизироваться, но все равно ниже среднего.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial (Основной текст)"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ПРОБЛЕМНАЯ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-В районе 23.02.2012 -- 23.10.2012 констатное поведение. Вот когда автоплатеж ставиться по счетчикам, такая же ситуация, т.е сотрудник как-бдуто заполнял данные от себя(может быть специально превышал). 
-Мошенничество выявили, но потом как-будто снова продолжили.</t>
+Не удается сохранить прибыль выше среднего наблюдается рост и дальнейший спад ниже среднего</t>
     </r>
   </si>
   <si>
@@ -198,10 +176,11 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-В последние пол года наверное нашлось хорошее решение, что принесло прибыль.</t>
+Константное поведение, но после идет рост вероятно связанный с правильными решениями</t>
     </r>
   </si>
   <si>
@@ -219,11 +198,11 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- кампания но в срок 06.09.2012-06.12.2012 видимо была какая-то акция или распродажа, что привела к росту, и потом закончилась и все вернулось в обычный режим.
-</t>
+констаное поведение потом резки скачек и опять обычное поведение, возможно повлиял новостной фон</t>
     </r>
   </si>
   <si>
@@ -241,10 +220,11 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-За 2011 год было все неплохо, похоже, что кампания очень любит эксперименты, либо занимается рискованной деятельностью, что по итогу в 2012 году привело их к убытках, хотя под конец года ситуация выравнилась </t>
+Сильная дельта прибыли в малых промежутках времени</t>
     </r>
   </si>
   <si>
@@ -266,8 +246,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-В 2010 году видимо проходила также акция или конкуренция была слаба, но в последующих годах осталось все стабильно.
-Хотя с 23.01.2012 до 01.08.2012 были показатели ниже среднего, видимо из-за авантюо 2010-11 годов.</t>
+При входе на рынок резкий скачек прибыли, потом спад и стабилизация</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ПРОБЛЕМНАЯ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Данные выглядят сильно "нарисованными"</t>
     </r>
   </si>
 </sst>
@@ -498,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -515,23 +516,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,9 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -593,10 +576,21 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -25790,70 +25784,73 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V65"/>
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="44" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="44" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="6.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="10">
         <v>40708</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>9381</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="12">
         <f>AVERAGE(B2:B3)</f>
         <v>7080.5</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="21">
         <f>AVERAGE(C2:C47)</f>
         <v>15227.173913043478</v>
       </c>
@@ -25861,18 +25858,18 @@
         <f>ABS(B2-B3)</f>
         <v>4601</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="22">
         <f>AVERAGE(E2:E47)</f>
         <v>13128.260869565218</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="H2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
       <c r="P2" s="5">
         <f>$D$2</f>
         <v>15227.173913043478</v>
@@ -25898,28 +25895,26 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="A3" s="10">
         <v>40746</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>4780</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="19">
         <f t="shared" ref="C3:C47" si="0">AVERAGE(B3:B4)</f>
         <v>3540.25</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27">
+      <c r="E3" s="20">
         <f t="shared" ref="E3:E47" si="1">ABS(B3-B4)</f>
         <v>2479.5</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
       <c r="P3" s="5">
         <f t="shared" ref="P3:P47" si="2">$D$2</f>
         <v>15227.173913043478</v>
@@ -25945,28 +25940,26 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="10">
         <v>40764</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>2300.5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="19">
         <f t="shared" si="0"/>
         <v>3540.25</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="27">
+      <c r="E4" s="20">
         <f t="shared" si="1"/>
         <v>2479.5</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
       <c r="P4" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -25992,28 +25985,26 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="A5" s="10">
         <v>40780</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>4780</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>5930.25</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="27">
+      <c r="E5" s="20">
         <f t="shared" si="1"/>
         <v>2300.5</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="P5" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26039,28 +26030,26 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="A6" s="13">
         <v>40858</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>7080.5</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>10620.75</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="27">
+      <c r="E6" s="20">
         <f t="shared" si="1"/>
         <v>7080.5</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
       <c r="P6" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26086,28 +26075,26 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="20">
+      <c r="A7" s="13">
         <v>40877</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>14161</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>23180.5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="27">
+      <c r="E7" s="20">
         <f t="shared" si="1"/>
         <v>18039</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="P7" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26133,28 +26120,26 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <v>40903</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>32200</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>18375</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="27">
+      <c r="E8" s="20">
         <f t="shared" si="1"/>
         <v>27650</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
       <c r="P8" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26180,28 +26165,20 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="20">
+      <c r="A9" s="13">
         <v>40903</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>4550</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>9062.5</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="27">
+      <c r="E9" s="20">
         <f t="shared" si="1"/>
         <v>9025</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
       <c r="P9" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26227,22 +26204,20 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="17">
+      <c r="A10" s="10">
         <v>40925</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>13575</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>9537.5</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="27">
+      <c r="E10" s="20">
         <f t="shared" si="1"/>
         <v>8075</v>
       </c>
-      <c r="F10" s="10"/>
       <c r="P10" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26268,22 +26243,20 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="10">
         <v>40960</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>5500</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
         <v>10825</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="27">
+      <c r="E11" s="20">
         <f t="shared" si="1"/>
         <v>10650</v>
       </c>
-      <c r="F11" s="10"/>
       <c r="P11" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26309,22 +26282,20 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="10">
         <v>40994</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>16150</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
         <v>16100</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="27">
+      <c r="E12" s="20">
         <f>ABS(B12-B13)</f>
         <v>100</v>
       </c>
-      <c r="F12" s="10"/>
       <c r="P12" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26350,22 +26321,20 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="10">
         <v>40996</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>16050</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
         <v>16100</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="27">
+      <c r="E13" s="20">
         <f>ABS(B13-B14)</f>
         <v>100</v>
       </c>
-      <c r="F13" s="10"/>
       <c r="P13" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26391,22 +26360,20 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="10">
         <v>40996</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>16150</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
         <v>12960</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="27">
+      <c r="E14" s="20">
         <f t="shared" si="1"/>
         <v>6380</v>
       </c>
-      <c r="F14" s="10"/>
       <c r="P14" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26432,22 +26399,20 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="10">
         <v>41009</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>9770</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
         <v>12960</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="27">
+      <c r="E15" s="20">
         <f t="shared" si="1"/>
         <v>6380</v>
       </c>
-      <c r="F15" s="10"/>
       <c r="P15" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26473,22 +26438,20 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
+      <c r="A16" s="10">
         <v>41047</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>16150</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
         <v>24225</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="27">
+      <c r="E16" s="20">
         <f t="shared" si="1"/>
         <v>16150</v>
       </c>
-      <c r="F16" s="10"/>
       <c r="P16" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26514,22 +26477,20 @@
       </c>
     </row>
     <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+      <c r="A17" s="10">
         <v>41074</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>32300</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="19">
         <f t="shared" si="0"/>
         <v>32300</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="27">
+      <c r="E17" s="20">
         <f>ABS(B17-B18)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="10"/>
       <c r="P17" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26555,22 +26516,20 @@
       </c>
     </row>
     <row r="18" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="10">
         <v>41078</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>32300</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="19">
         <f t="shared" si="0"/>
         <v>32300</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="27">
+      <c r="E18" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="10"/>
       <c r="P18" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26596,22 +26555,20 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+      <c r="A19" s="10">
         <v>41106</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>32300</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="19">
         <f t="shared" si="0"/>
         <v>32300</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="27">
+      <c r="E19" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="10"/>
       <c r="P19" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26637,22 +26594,20 @@
       </c>
     </row>
     <row r="20" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
+      <c r="A20" s="10">
         <v>41114</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>32300</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="19">
         <f t="shared" si="0"/>
         <v>40375</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="27">
+      <c r="E20" s="20">
         <f t="shared" si="1"/>
         <v>16150</v>
       </c>
-      <c r="F20" s="10"/>
       <c r="P20" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26678,22 +26633,20 @@
       </c>
     </row>
     <row r="21" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+      <c r="A21" s="10">
         <v>41129</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>48450</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="19">
         <f t="shared" si="0"/>
         <v>26025</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="27">
+      <c r="E21" s="20">
         <f t="shared" si="1"/>
         <v>44850</v>
       </c>
-      <c r="F21" s="10"/>
       <c r="P21" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26719,22 +26672,20 @@
       </c>
     </row>
     <row r="22" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="A22" s="10">
         <v>41149</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>3600</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="19">
         <f t="shared" si="0"/>
         <v>17950</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="27">
+      <c r="E22" s="20">
         <f t="shared" si="1"/>
         <v>28700</v>
       </c>
-      <c r="F22" s="10"/>
       <c r="P22" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26760,22 +26711,20 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+      <c r="A23" s="10">
         <v>41163</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>32300</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="19">
         <f t="shared" si="0"/>
         <v>16750</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="27">
+      <c r="E23" s="20">
         <f t="shared" si="1"/>
         <v>31100</v>
       </c>
-      <c r="F23" s="10"/>
       <c r="P23" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26801,22 +26750,20 @@
       </c>
     </row>
     <row r="24" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="21">
+      <c r="A24" s="14">
         <v>41173</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="15">
         <v>1200</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="19">
         <f t="shared" si="0"/>
         <v>16750</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="27">
+      <c r="E24" s="20">
         <f t="shared" si="1"/>
         <v>31100</v>
       </c>
-      <c r="F24" s="10"/>
       <c r="P24" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26842,22 +26789,20 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+      <c r="A25" s="14">
         <v>41173</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="15">
         <v>32300</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="19">
         <f t="shared" si="0"/>
         <v>36337.5</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="27">
+      <c r="E25" s="20">
         <f t="shared" si="1"/>
         <v>8075</v>
       </c>
-      <c r="F25" s="10"/>
       <c r="P25" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26883,22 +26828,20 @@
       </c>
     </row>
     <row r="26" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="23">
+      <c r="A26" s="16">
         <v>41198</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="15">
         <v>40375</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="19">
         <f t="shared" si="0"/>
         <v>21087.5</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="27">
+      <c r="E26" s="20">
         <f t="shared" si="1"/>
         <v>38575</v>
       </c>
-      <c r="F26" s="10"/>
       <c r="P26" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26924,22 +26867,20 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="23">
+      <c r="A27" s="16">
         <v>41201</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="15">
         <v>1800</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="19">
         <f t="shared" si="0"/>
         <v>17050</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="27">
+      <c r="E27" s="20">
         <f t="shared" si="1"/>
         <v>30500</v>
       </c>
-      <c r="F27" s="10"/>
       <c r="P27" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -26965,22 +26906,20 @@
       </c>
     </row>
     <row r="28" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="23">
+      <c r="A28" s="16">
         <v>41235</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="15">
         <v>32300</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="19">
         <f t="shared" si="0"/>
         <v>17050</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="27">
+      <c r="E28" s="20">
         <f t="shared" si="1"/>
         <v>30500</v>
       </c>
-      <c r="F28" s="10"/>
       <c r="P28" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27006,22 +26945,20 @@
       </c>
     </row>
     <row r="29" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
+      <c r="A29" s="14">
         <v>41246</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="15">
         <v>1800</v>
       </c>
-      <c r="C29" s="26">
+      <c r="C29" s="19">
         <f t="shared" si="0"/>
         <v>17050</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="27">
+      <c r="E29" s="20">
         <f t="shared" si="1"/>
         <v>30500</v>
       </c>
-      <c r="F29" s="10"/>
       <c r="P29" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27047,22 +26984,20 @@
       </c>
     </row>
     <row r="30" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="23">
+      <c r="A30" s="16">
         <v>41255</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="15">
         <v>32300</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="19">
         <f t="shared" si="0"/>
         <v>18070</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="27">
+      <c r="E30" s="20">
         <f t="shared" si="1"/>
         <v>28460</v>
       </c>
-      <c r="F30" s="10"/>
       <c r="P30" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27088,22 +27023,20 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="14">
         <v>41299</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="15">
         <v>3840</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C31" s="19">
         <f t="shared" si="0"/>
         <v>5520</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="27">
+      <c r="E31" s="20">
         <f t="shared" si="1"/>
         <v>3360</v>
       </c>
-      <c r="F31" s="10"/>
       <c r="P31" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27129,22 +27062,20 @@
       </c>
     </row>
     <row r="32" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="21">
+      <c r="A32" s="14">
         <v>41324</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="15">
         <v>7200</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="19">
         <f t="shared" si="0"/>
         <v>17837.5</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="27">
+      <c r="E32" s="20">
         <f t="shared" si="1"/>
         <v>21275</v>
       </c>
-      <c r="F32" s="10"/>
       <c r="P32" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27170,22 +27101,20 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
+      <c r="A33" s="14">
         <v>41330</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="15">
         <v>28475</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="19">
         <f t="shared" si="0"/>
         <v>16150</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="27">
+      <c r="E33" s="20">
         <f t="shared" si="1"/>
         <v>24650</v>
       </c>
-      <c r="F33" s="10"/>
       <c r="P33" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27211,22 +27140,20 @@
       </c>
     </row>
     <row r="34" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="21">
+      <c r="A34" s="14">
         <v>41351</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="15">
         <v>3825</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="19">
         <f t="shared" si="0"/>
         <v>3822.5</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="27">
+      <c r="E34" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F34" s="10"/>
       <c r="P34" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27252,22 +27179,20 @@
       </c>
     </row>
     <row r="35" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="21">
+      <c r="A35" s="14">
         <v>41351</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="15">
         <v>3820</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="19">
         <f t="shared" si="0"/>
         <v>13972.5</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="27">
+      <c r="E35" s="20">
         <f t="shared" si="1"/>
         <v>20305</v>
       </c>
-      <c r="F35" s="10"/>
       <c r="P35" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27293,22 +27218,20 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="21">
+      <c r="A36" s="14">
         <v>41393</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="15">
         <v>24125</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="19">
         <f t="shared" si="0"/>
         <v>16312.5</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="27">
+      <c r="E36" s="20">
         <f t="shared" si="1"/>
         <v>15625</v>
       </c>
-      <c r="F36" s="10"/>
       <c r="P36" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27334,22 +27257,20 @@
       </c>
     </row>
     <row r="37" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
+      <c r="A37" s="14">
         <v>41393</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="15">
         <v>8500</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="19">
         <f t="shared" si="0"/>
         <v>7790</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="27">
+      <c r="E37" s="20">
         <f t="shared" si="1"/>
         <v>1420</v>
       </c>
-      <c r="F37" s="10"/>
       <c r="P37" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27375,22 +27296,20 @@
       </c>
     </row>
     <row r="38" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="21">
+      <c r="A38" s="14">
         <v>41409</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="15">
         <v>7080</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="19">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="27">
+      <c r="E38" s="20">
         <f t="shared" si="1"/>
         <v>6960</v>
       </c>
-      <c r="F38" s="10"/>
       <c r="P38" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27416,22 +27335,20 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="21">
+      <c r="A39" s="14">
         <v>41415</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="17">
         <v>120</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="19">
         <f t="shared" si="0"/>
         <v>8135</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="27">
+      <c r="E39" s="20">
         <f t="shared" si="1"/>
         <v>16030</v>
       </c>
-      <c r="F39" s="10"/>
       <c r="P39" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27457,22 +27374,20 @@
       </c>
     </row>
     <row r="40" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="25">
+      <c r="A40" s="18">
         <v>41430</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="15">
         <v>16150</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="19">
         <f t="shared" si="0"/>
         <v>12112.5</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="27">
+      <c r="E40" s="20">
         <f t="shared" si="1"/>
         <v>8075</v>
       </c>
-      <c r="F40" s="10"/>
       <c r="P40" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27498,22 +27413,20 @@
       </c>
     </row>
     <row r="41" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="25">
+      <c r="A41" s="18">
         <v>41444</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="15">
         <v>8075</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="19">
         <f t="shared" si="0"/>
         <v>7577.5</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="27">
+      <c r="E41" s="20">
         <f t="shared" si="1"/>
         <v>995</v>
       </c>
-      <c r="F41" s="10"/>
       <c r="P41" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27539,22 +27452,20 @@
       </c>
     </row>
     <row r="42" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="25">
+      <c r="A42" s="18">
         <v>41457</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="15">
         <v>7080</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="19">
         <f t="shared" si="0"/>
         <v>11615</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="27">
+      <c r="E42" s="20">
         <f t="shared" si="1"/>
         <v>9070</v>
       </c>
-      <c r="F42" s="10"/>
       <c r="P42" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27580,22 +27491,20 @@
       </c>
     </row>
     <row r="43" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="25">
+      <c r="A43" s="18">
         <v>41471</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B43" s="15">
         <v>16150</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="19">
         <f t="shared" si="0"/>
         <v>11155</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="27">
+      <c r="E43" s="20">
         <f t="shared" si="1"/>
         <v>9990</v>
       </c>
-      <c r="F43" s="10"/>
       <c r="P43" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27621,22 +27530,20 @@
       </c>
     </row>
     <row r="44" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="25">
+      <c r="A44" s="18">
         <v>41489</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="15">
         <v>6160</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="19">
         <f t="shared" si="0"/>
         <v>7117.5</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="27">
+      <c r="E44" s="20">
         <f t="shared" si="1"/>
         <v>1915</v>
       </c>
-      <c r="F44" s="10"/>
       <c r="P44" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27662,22 +27569,20 @@
       </c>
     </row>
     <row r="45" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="25">
+      <c r="A45" s="18">
         <v>41504</v>
       </c>
-      <c r="B45" s="22">
+      <c r="B45" s="15">
         <v>8075</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="19">
         <f t="shared" si="0"/>
         <v>12112.5</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="27">
+      <c r="E45" s="20">
         <f t="shared" si="1"/>
         <v>8075</v>
       </c>
-      <c r="F45" s="10"/>
       <c r="P45" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27703,22 +27608,20 @@
       </c>
     </row>
     <row r="46" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="25">
+      <c r="A46" s="18">
         <v>41517</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="15">
         <v>16150</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="19">
         <f t="shared" si="0"/>
         <v>12112.5</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="27">
+      <c r="E46" s="20">
         <f t="shared" si="1"/>
         <v>8075</v>
       </c>
-      <c r="F46" s="10"/>
       <c r="P46" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27744,22 +27647,20 @@
       </c>
     </row>
     <row r="47" spans="1:22" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="25">
+      <c r="A47" s="18">
         <v>41532</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="15">
         <v>8075</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="19">
         <f t="shared" si="0"/>
         <v>8075</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="27">
+      <c r="E47" s="20">
         <f t="shared" si="1"/>
         <v>8075</v>
       </c>
-      <c r="F47" s="10"/>
       <c r="P47" s="5">
         <f t="shared" si="2"/>
         <v>15227.173913043478</v>
@@ -27787,181 +27688,8 @@
     <row r="48" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C48" s="5"/>
     </row>
-    <row r="50" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-    </row>
-    <row r="51" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G51" s="10"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-    </row>
-    <row r="52" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G52" s="10"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-    </row>
-    <row r="53" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G53" s="10"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-    </row>
-    <row r="54" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G54" s="10"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-    </row>
-    <row r="55" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G55" s="10"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-    </row>
-    <row r="56" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G56" s="10"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-    </row>
-    <row r="57" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G57" s="10"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-    </row>
-    <row r="58" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G58" s="10"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-    </row>
-    <row r="59" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G59" s="10"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-    </row>
-    <row r="60" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G60" s="10"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-    </row>
-    <row r="61" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G61" s="10"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-    </row>
-    <row r="62" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G62" s="10"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-    </row>
-    <row r="63" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G63" s="10"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-    </row>
-    <row r="64" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-    </row>
-    <row r="65" spans="7:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
+    <row r="50" spans="8:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H50" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -27977,66 +27705,66 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="B1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32" t="s">
+      <c r="O1" s="24"/>
+      <c r="P1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="14">
         <v>40809</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="15">
         <v>7000</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="12">
         <f>AVERAGE(B2:B3)</f>
         <v>7000</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="26">
         <f>AVERAGE(C2:C22)</f>
         <v>9962.8857142857141</v>
       </c>
@@ -28044,17 +27772,17 @@
         <f t="shared" ref="E2:E22" si="0">ABS(B2-B3)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="27">
         <f>AVERAGE(E2:E22)</f>
         <v>2766.6666666666665</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="G2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
       <c r="L2" s="5">
         <f>$D$2</f>
         <v>9962.8857142857141</v>
@@ -28080,13 +27808,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>40842</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="15">
         <v>7000</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="12">
         <f>AVERAGE(B3:B4)</f>
         <v>6475</v>
       </c>
@@ -28094,11 +27822,11 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="5">
         <f t="shared" ref="L3:L22" si="1">$D$2</f>
         <v>9962.8857142857141</v>
@@ -28124,13 +27852,13 @@
       </c>
     </row>
     <row r="4" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>40869</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>5950</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <f>AVERAGE(B4:B5)</f>
         <v>5950</v>
       </c>
@@ -28138,11 +27866,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>9962.8857142857141</v>
@@ -28168,13 +27896,13 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>40900</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>5950</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <f t="shared" ref="C5:C22" si="6">AVERAGE(B5:B6)</f>
         <v>5950</v>
       </c>
@@ -28182,11 +27910,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
       <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>9962.8857142857141</v>
@@ -28212,13 +27940,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="A6" s="14">
         <v>40940</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>5950</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <f t="shared" si="6"/>
         <v>9410.2999999999993</v>
       </c>
@@ -28226,11 +27954,11 @@
         <f t="shared" si="0"/>
         <v>6920.6</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>9962.8857142857141</v>
@@ -28256,13 +27984,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="14">
         <v>40974</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>12870.6</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <f t="shared" si="6"/>
         <v>13435.3</v>
       </c>
@@ -28295,13 +28023,13 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="14">
         <v>41003</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>14000</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28334,13 +28062,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="14">
         <v>41034</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>14000</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28373,13 +28101,13 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="14">
         <v>41068</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>14000</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28412,13 +28140,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="14">
         <v>41094</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>14000</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28451,13 +28179,13 @@
       </c>
     </row>
     <row r="12" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="A12" s="14">
         <v>41129</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>14000</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28490,13 +28218,13 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="14">
         <v>41178</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>14000</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28529,13 +28257,13 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="23">
+      <c r="A14" s="16">
         <v>41197</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>14000</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28568,13 +28296,13 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="14">
         <v>41220</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="15">
         <v>14000</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="12">
         <f t="shared" si="6"/>
         <v>12250</v>
       </c>
@@ -28607,13 +28335,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="23">
+      <c r="A16" s="16">
         <v>41254</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="15">
         <v>10500</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="12">
         <f t="shared" si="6"/>
         <v>7000</v>
       </c>
@@ -28646,13 +28374,13 @@
       </c>
     </row>
     <row r="17" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="14">
         <v>41290</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="15">
         <v>3500</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="12">
         <f t="shared" si="6"/>
         <v>3500</v>
       </c>
@@ -28685,13 +28413,13 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+      <c r="A18" s="14">
         <v>41318</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="15">
         <v>3500</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="12">
         <f t="shared" si="6"/>
         <v>3500</v>
       </c>
@@ -28724,13 +28452,13 @@
       </c>
     </row>
     <row r="19" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
+      <c r="A19" s="14">
         <v>41345</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="15">
         <v>3500</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="12">
         <f t="shared" si="6"/>
         <v>7000</v>
       </c>
@@ -28763,13 +28491,13 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
+      <c r="A20" s="14">
         <v>41347</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="15">
         <v>10500</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="12">
         <f t="shared" si="6"/>
         <v>7000</v>
       </c>
@@ -28802,13 +28530,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
+      <c r="A21" s="14">
         <v>41390</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="15">
         <v>3500</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="12">
         <f t="shared" si="6"/>
         <v>8750</v>
       </c>
@@ -28841,13 +28569,13 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="21">
+      <c r="A22" s="14">
         <v>41408</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="15">
         <v>14000</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="12">
         <f t="shared" si="6"/>
         <v>14000</v>
       </c>
@@ -28882,119 +28610,10 @@
     <row r="23" spans="1:18" ht="13" x14ac:dyDescent="0.15">
       <c r="B23" s="1"/>
     </row>
-    <row r="33" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-    </row>
-    <row r="36" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-    </row>
-    <row r="37" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-    </row>
-    <row r="38" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-    </row>
-    <row r="39" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-    </row>
-    <row r="40" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-    </row>
-    <row r="41" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-    </row>
-    <row r="43" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-    </row>
-    <row r="46" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+    <row r="33" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29010,67 +28629,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G3" sqref="G3:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36" t="s">
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="14">
         <v>40695</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="15">
         <v>6290</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="12">
         <f>AVERAGE(B2:B3)</f>
         <v>6290</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="26">
         <f>AVERAGE(C2:C28)</f>
         <v>8174.6111111111113</v>
       </c>
@@ -29078,11 +28697,11 @@
         <f>ABS(B2-B3)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="27">
         <f>AVERAGE(E2:E28)</f>
         <v>2902.4074074074074</v>
       </c>
-      <c r="M2" s="19">
+      <c r="M2" s="12">
         <f>$D$2</f>
         <v>8174.6111111111113</v>
       </c>
@@ -29108,13 +28727,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+      <c r="A3" s="14">
         <v>40723</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="15">
         <v>6290</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="12">
         <f>AVERAGE(B3:B4)</f>
         <v>7076.25</v>
       </c>
@@ -29122,14 +28741,14 @@
         <f t="shared" ref="E3:E28" si="0">ABS(B3-B4)</f>
         <v>1572.5</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="M3" s="19">
+      <c r="G3" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="M3" s="12">
         <f t="shared" ref="M3:M28" si="1">$D$2</f>
         <v>8174.6111111111113</v>
       </c>
@@ -29155,13 +28774,13 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="A4" s="14">
         <v>40749</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>7862.5</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <f t="shared" ref="C4:C28" si="6">AVERAGE(B4:B5)</f>
         <v>7076.25</v>
       </c>
@@ -29169,12 +28788,12 @@
         <f t="shared" si="0"/>
         <v>1572.5</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="19">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="M4" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29200,13 +28819,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="14">
         <v>40785</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>6290</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <f t="shared" si="6"/>
         <v>6290</v>
       </c>
@@ -29214,12 +28833,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="M5" s="19">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="M5" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29245,13 +28864,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="A6" s="14">
         <v>40812</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="15">
         <v>6290</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <f t="shared" si="6"/>
         <v>7607.5</v>
       </c>
@@ -29259,12 +28878,12 @@
         <f t="shared" si="0"/>
         <v>2635</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="M6" s="19">
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="M6" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29290,13 +28909,13 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>40847</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="15">
         <v>8925</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <f t="shared" si="6"/>
         <v>8032.5</v>
       </c>
@@ -29304,7 +28923,7 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29330,13 +28949,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>40876</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="15">
         <v>7140</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <f t="shared" si="6"/>
         <v>6247.5</v>
       </c>
@@ -29344,7 +28963,7 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-      <c r="M8" s="19">
+      <c r="M8" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29370,13 +28989,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>40905</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="15">
         <v>5355</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <f t="shared" si="6"/>
         <v>6247.5</v>
       </c>
@@ -29384,7 +29003,7 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-      <c r="M9" s="19">
+      <c r="M9" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29410,13 +29029,13 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="14">
         <v>40939</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="15">
         <v>7140</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <f t="shared" si="6"/>
         <v>7140</v>
       </c>
@@ -29424,7 +29043,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M10" s="19">
+      <c r="M10" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29450,13 +29069,13 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="14">
         <v>40966</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="15">
         <v>7140</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="12">
         <f t="shared" si="6"/>
         <v>7140</v>
       </c>
@@ -29464,7 +29083,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29490,13 +29109,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
+      <c r="A12" s="14">
         <v>41010</v>
       </c>
-      <c r="B12" s="22">
+      <c r="B12" s="15">
         <v>7140</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="12">
         <f t="shared" si="6"/>
         <v>7140</v>
       </c>
@@ -29504,7 +29123,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29530,13 +29149,13 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="14">
         <v>41054</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="15">
         <v>7140</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="12">
         <f t="shared" si="6"/>
         <v>4462.5</v>
       </c>
@@ -29544,7 +29163,7 @@
         <f t="shared" si="0"/>
         <v>5355</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29570,13 +29189,13 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+      <c r="A14" s="14">
         <v>41085</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="15">
         <v>1785</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="12">
         <f t="shared" si="6"/>
         <v>4462.5</v>
       </c>
@@ -29584,7 +29203,7 @@
         <f t="shared" si="0"/>
         <v>5355</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29610,13 +29229,13 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="14">
         <v>41107</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="15">
         <v>7140</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="12">
         <f t="shared" si="6"/>
         <v>8032.5</v>
       </c>
@@ -29624,7 +29243,7 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29650,13 +29269,13 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
+      <c r="A16" s="14">
         <v>41150</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B16" s="15">
         <v>8925</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="12">
         <f t="shared" si="6"/>
         <v>8032.5</v>
       </c>
@@ -29664,7 +29283,7 @@
         <f t="shared" si="0"/>
         <v>1785</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29690,13 +29309,13 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="14">
         <v>41170</v>
       </c>
-      <c r="B17" s="22">
+      <c r="B17" s="15">
         <v>7140</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="12">
         <f t="shared" si="6"/>
         <v>7140</v>
       </c>
@@ -29704,7 +29323,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29730,13 +29349,13 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="23">
+      <c r="A18" s="16">
         <v>41198</v>
       </c>
-      <c r="B18" s="22">
+      <c r="B18" s="15">
         <v>7140</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="12">
         <f t="shared" si="6"/>
         <v>4462.5</v>
       </c>
@@ -29744,7 +29363,7 @@
         <f t="shared" si="0"/>
         <v>5355</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29770,13 +29389,13 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="23">
+      <c r="A19" s="16">
         <v>41198</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="15">
         <v>1785</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="12">
         <f t="shared" si="6"/>
         <v>5355</v>
       </c>
@@ -29784,7 +29403,7 @@
         <f t="shared" si="0"/>
         <v>7140</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29810,13 +29429,13 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="23">
+      <c r="A20" s="16">
         <v>41225</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="15">
         <v>8925</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="12">
         <f t="shared" si="6"/>
         <v>7500</v>
       </c>
@@ -29824,7 +29443,7 @@
         <f t="shared" si="0"/>
         <v>2850</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29850,13 +29469,13 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="23">
+      <c r="A21" s="16">
         <v>41260</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="15">
         <v>6075</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="12">
         <f t="shared" si="6"/>
         <v>6607.5</v>
       </c>
@@ -29864,7 +29483,7 @@
         <f t="shared" si="0"/>
         <v>1065</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29890,13 +29509,13 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="21">
+      <c r="A22" s="14">
         <v>41305</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="15">
         <v>7140</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="12">
         <f t="shared" si="6"/>
         <v>7501</v>
       </c>
@@ -29904,7 +29523,7 @@
         <f t="shared" si="0"/>
         <v>722</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29930,13 +29549,13 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="A23" s="14">
         <v>41333</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="15">
         <v>7862</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="12">
         <f t="shared" si="6"/>
         <v>11431</v>
       </c>
@@ -29944,7 +29563,7 @@
         <f t="shared" si="0"/>
         <v>7138</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -29970,13 +29589,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="21">
+      <c r="A24" s="14">
         <v>41359</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="15">
         <v>15000</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="12">
         <f t="shared" si="6"/>
         <v>12940</v>
       </c>
@@ -29984,7 +29603,7 @@
         <f t="shared" si="0"/>
         <v>4120</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -30010,13 +29629,13 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
+      <c r="A25" s="14">
         <v>41387</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="15">
         <v>10880</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="12">
         <f t="shared" si="6"/>
         <v>10880</v>
       </c>
@@ -30024,7 +29643,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -30050,13 +29669,13 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="25">
+      <c r="A26" s="18">
         <v>41419</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="15">
         <v>10880</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="12">
         <f t="shared" si="6"/>
         <v>12240</v>
       </c>
@@ -30064,7 +29683,7 @@
         <f t="shared" si="0"/>
         <v>2720</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -30090,13 +29709,13 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="25">
+      <c r="A27" s="18">
         <v>41455</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="15">
         <v>13600</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="12">
         <f t="shared" si="6"/>
         <v>15660</v>
       </c>
@@ -30104,7 +29723,7 @@
         <f t="shared" si="0"/>
         <v>4120</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -30130,13 +29749,13 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="25">
+      <c r="A28" s="18">
         <v>41513</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="15">
         <v>17720</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="12">
         <f t="shared" si="6"/>
         <v>17720</v>
       </c>
@@ -30144,7 +29763,7 @@
         <f t="shared" si="0"/>
         <v>17720</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="12">
         <f t="shared" si="1"/>
         <v>8174.6111111111113</v>
       </c>
@@ -30169,117 +29788,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="7:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+    <row r="33" spans="7:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G33" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -30295,67 +29805,67 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="G2" sqref="G2:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="10">
         <v>40700</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>3500</v>
       </c>
       <c r="C2" s="6">
         <f>AVERAGE(B2:B3)</f>
         <v>3500</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="27">
         <f>AVERAGE(C2:C33)</f>
         <v>6979.25</v>
       </c>
@@ -30363,18 +29873,18 @@
         <f>ABS(B2-B3)</f>
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="27">
         <f>AVERAGE(E2:E33)</f>
         <v>3233.25</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="38"/>
+      <c r="G2" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="6">
         <f>$D$2</f>
         <v>6979.25</v>
@@ -30401,10 +29911,10 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="A3" s="10">
         <v>40711</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>3500</v>
       </c>
       <c r="C3" s="6">
@@ -30415,12 +29925,12 @@
         <f t="shared" ref="E3:E33" si="1">ABS(B3-B4)</f>
         <v>8250</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="42"/>
       <c r="M3" s="6">
         <f t="shared" ref="M3:M33" si="2">$D$2</f>
         <v>6979.25</v>
@@ -30447,10 +29957,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="10">
         <v>40795</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>11750</v>
       </c>
       <c r="C4" s="6">
@@ -30461,12 +29971,12 @@
         <f t="shared" si="1"/>
         <v>2750</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="42"/>
       <c r="M4" s="6">
         <f t="shared" si="2"/>
         <v>6979.25</v>
@@ -30493,10 +30003,10 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="20">
+      <c r="A5" s="13">
         <v>40830</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>9000</v>
       </c>
       <c r="C5" s="6">
@@ -30507,12 +30017,12 @@
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="38"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="42"/>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
         <v>6979.25</v>
@@ -30539,10 +30049,10 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="A6" s="13">
         <v>40844</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>2750</v>
       </c>
       <c r="C6" s="6">
@@ -30553,12 +30063,12 @@
         <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="38"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
         <v>6979.25</v>
@@ -30585,10 +30095,10 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="A7" s="10">
         <v>40856</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>4500</v>
       </c>
       <c r="C7" s="6">
@@ -30625,10 +30135,10 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <v>40876</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>4500</v>
       </c>
       <c r="C8" s="6">
@@ -30665,10 +30175,10 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="17">
+      <c r="A9" s="10">
         <v>40883</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>4700</v>
       </c>
       <c r="C9" s="6">
@@ -30705,10 +30215,10 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <v>40897</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>4700</v>
       </c>
       <c r="C10" s="6">
@@ -30745,10 +30255,10 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="10">
         <v>40984</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>4500</v>
       </c>
       <c r="C11" s="6">
@@ -30785,10 +30295,10 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="10">
         <v>41025</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>4500</v>
       </c>
       <c r="C12" s="6">
@@ -30825,10 +30335,10 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="10">
         <v>41045</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>5000</v>
       </c>
       <c r="C13" s="6">
@@ -30865,10 +30375,10 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="10">
         <v>41058</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>5000</v>
       </c>
       <c r="C14" s="6">
@@ -30905,10 +30415,10 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="10">
         <v>41081</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>5000</v>
       </c>
       <c r="C15" s="6">
@@ -30945,10 +30455,10 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
+      <c r="A16" s="10">
         <v>41082</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>5000</v>
       </c>
       <c r="C16" s="6">
@@ -30985,10 +30495,10 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+      <c r="A17" s="10">
         <v>41094</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>6050</v>
       </c>
       <c r="C17" s="6">
@@ -31025,10 +30535,10 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="10">
         <v>41100</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>6950</v>
       </c>
       <c r="C18" s="6">
@@ -31065,10 +30575,10 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="17">
+      <c r="A19" s="10">
         <v>41144</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>4500</v>
       </c>
       <c r="C19" s="6">
@@ -31105,10 +30615,10 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="17">
+      <c r="A20" s="10">
         <v>41164</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>4500</v>
       </c>
       <c r="C20" s="6">
@@ -31145,10 +30655,10 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+      <c r="A21" s="10">
         <v>41173</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>4500</v>
       </c>
       <c r="C21" s="6">
@@ -31185,10 +30695,10 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="A22" s="10">
         <v>41191</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>25000</v>
       </c>
       <c r="C22" s="6">
@@ -31225,10 +30735,10 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="20">
+      <c r="A23" s="13">
         <v>41205</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>25000</v>
       </c>
       <c r="C23" s="6">
@@ -31265,10 +30775,10 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="20">
+      <c r="A24" s="13">
         <v>41225</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="11">
         <v>4950</v>
       </c>
       <c r="C24" s="6">
@@ -31305,10 +30815,10 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="20">
+      <c r="A25" s="13">
         <v>41239</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="11">
         <v>1150</v>
       </c>
       <c r="C25" s="6">
@@ -31345,10 +30855,10 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="20">
+      <c r="A26" s="13">
         <v>41261</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="11">
         <v>6655</v>
       </c>
       <c r="C26" s="6">
@@ -31385,10 +30895,10 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
+      <c r="A27" s="10">
         <v>41292</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="11">
         <v>6664</v>
       </c>
       <c r="C27" s="6">
@@ -31425,10 +30935,10 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="17">
+      <c r="A28" s="10">
         <v>41303</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="11">
         <v>6664</v>
       </c>
       <c r="C28" s="6">
@@ -31465,10 +30975,10 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
+      <c r="A29" s="10">
         <v>41313</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>8000</v>
       </c>
       <c r="C29" s="6">
@@ -31505,10 +31015,10 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="17">
+      <c r="A30" s="10">
         <v>41319</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="11">
         <v>3328</v>
       </c>
       <c r="C30" s="6">
@@ -31545,10 +31055,10 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="17">
+      <c r="A31" s="10">
         <v>41373</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>6655</v>
       </c>
       <c r="C31" s="6">
@@ -31585,10 +31095,10 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="17">
+      <c r="A32" s="10">
         <v>41380</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>6655</v>
       </c>
       <c r="C32" s="6">
@@ -31625,10 +31135,10 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="17">
+      <c r="A33" s="10">
         <v>41422</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>13310</v>
       </c>
       <c r="C33" s="6">
@@ -31639,12 +31149,7 @@
         <f t="shared" si="1"/>
         <v>13310</v>
       </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="G33" s="8"/>
       <c r="M33" s="6">
         <f t="shared" si="2"/>
         <v>6979.25</v>
@@ -31669,110 +31174,6 @@
       <c r="S33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-    </row>
-    <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-    </row>
-    <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-    </row>
-    <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -31790,8 +31191,8 @@
   </sheetPr>
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView topLeftCell="C2" zoomScale="119" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31800,58 +31201,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="41">
+      <c r="A2" s="33">
         <v>40570.706516203703</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>5900</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="34">
         <f>AVERAGE(B2:B3)</f>
         <v>5310</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="27">
         <f>AVERAGE(C2:C69)</f>
         <v>3169.3676470588234</v>
       </c>
@@ -31859,18 +31260,18 @@
         <f>ABS(B2-B3)</f>
         <v>1180</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="27">
         <f>AVERAGE(E2:E69)</f>
         <v>1363.5294117647059</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="G2" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
       <c r="M2" s="6">
         <f>$D$2</f>
         <v>3169.3676470588234</v>
@@ -31897,13 +31298,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="41">
+      <c r="A3" s="33">
         <v>40570.706516203703</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>4720</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="34">
         <f t="shared" ref="C3:C66" si="0">AVERAGE(B3:B4)</f>
         <v>4720</v>
       </c>
@@ -31911,12 +31312,12 @@
         <f t="shared" ref="E3:E66" si="1">ABS(B3-B4)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="6">
         <f t="shared" ref="M3:M66" si="2">$D$2</f>
         <v>3169.3676470588234</v>
@@ -31943,13 +31344,13 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="41">
+      <c r="A4" s="33">
         <v>40592.559004629627</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>4720</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="34">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
@@ -31957,12 +31358,12 @@
         <f t="shared" si="1"/>
         <v>3540</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -31989,13 +31390,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="41">
+      <c r="A5" s="33">
         <v>40603.613043981481</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>1180</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="34">
         <f t="shared" si="0"/>
         <v>2950</v>
       </c>
@@ -32003,12 +31404,12 @@
         <f t="shared" si="1"/>
         <v>3540</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="M5" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -32035,13 +31436,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="41">
+      <c r="A6" s="33">
         <v>40603.746087962965</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>4720</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="34">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
@@ -32049,12 +31450,12 @@
         <f t="shared" si="1"/>
         <v>1180</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -32081,13 +31482,13 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="41">
+      <c r="A7" s="33">
         <v>40634.533819444441</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>5900</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="34">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
@@ -32095,12 +31496,12 @@
         <f t="shared" si="1"/>
         <v>1180</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -32127,13 +31528,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="41">
+      <c r="A8" s="33">
         <v>40645.684386574074</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>4720</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>4720</v>
       </c>
@@ -32141,12 +31542,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="M8" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -32173,13 +31574,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
+      <c r="A9" s="33">
         <v>40661.756828703707</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>4720</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>5310</v>
       </c>
@@ -32213,13 +31614,13 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="41">
+      <c r="A10" s="33">
         <v>40661.756828703707</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>5900</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>5074</v>
       </c>
@@ -32253,13 +31654,13 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="41">
+      <c r="A11" s="33">
         <v>40666.511979166666</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>4248</v>
       </c>
-      <c r="C11" s="42">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>4956</v>
       </c>
@@ -32293,13 +31694,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="41">
+      <c r="A12" s="33">
         <v>40668.656655092593</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>5664</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>5192</v>
       </c>
@@ -32333,13 +31734,13 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="41">
+      <c r="A13" s="33">
         <v>40668.656655092593</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>4720</v>
       </c>
-      <c r="C13" s="42">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>5192</v>
       </c>
@@ -32373,13 +31774,13 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="41">
+      <c r="A14" s="33">
         <v>40668.656655092593</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>5664</v>
       </c>
-      <c r="C14" s="42">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>6372</v>
       </c>
@@ -32413,13 +31814,13 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="41">
+      <c r="A15" s="33">
         <v>40681.580046296294</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>7080</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>6372</v>
       </c>
@@ -32453,13 +31854,13 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="41">
+      <c r="A16" s="33">
         <v>40681.583298611113</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>5664</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="34">
         <f t="shared" si="0"/>
         <v>5664</v>
       </c>
@@ -32493,13 +31894,13 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="41">
+      <c r="A17" s="33">
         <v>40681.583298611113</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>5664</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="34">
         <f t="shared" si="0"/>
         <v>5664</v>
       </c>
@@ -32533,13 +31934,13 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="41">
+      <c r="A18" s="33">
         <v>40690.670162037037</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>5664</v>
       </c>
-      <c r="C18" s="42">
+      <c r="C18" s="34">
         <f t="shared" si="0"/>
         <v>5372</v>
       </c>
@@ -32573,13 +31974,13 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="41">
+      <c r="A19" s="33">
         <v>40690.670162037037</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>5080</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="34">
         <f t="shared" si="0"/>
         <v>5372</v>
       </c>
@@ -32613,13 +32014,13 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="41">
+      <c r="A20" s="33">
         <v>40690.670162037037</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>5664</v>
       </c>
-      <c r="C20" s="42">
+      <c r="C20" s="34">
         <f t="shared" si="0"/>
         <v>3832</v>
       </c>
@@ -32653,13 +32054,13 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="41">
+      <c r="A21" s="33">
         <v>40724.607939814814</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>2000</v>
       </c>
-      <c r="C21" s="42">
+      <c r="C21" s="34">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -32693,13 +32094,13 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="41">
+      <c r="A22" s="33">
         <v>40724.607939814814</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>1000</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="34">
         <f t="shared" si="0"/>
         <v>3540</v>
       </c>
@@ -32733,13 +32134,13 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="41">
+      <c r="A23" s="33">
         <v>40724.659895833334</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>6080</v>
       </c>
-      <c r="C23" s="42">
+      <c r="C23" s="34">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -32773,13 +32174,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="41">
+      <c r="A24" s="33">
         <v>40752.702256944445</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="11">
         <v>3920</v>
       </c>
-      <c r="C24" s="42">
+      <c r="C24" s="34">
         <f t="shared" si="0"/>
         <v>3584</v>
       </c>
@@ -32813,13 +32214,13 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="41">
+      <c r="A25" s="33">
         <v>40752.702256944445</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="11">
         <v>3248</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C25" s="34">
         <f t="shared" si="0"/>
         <v>2842</v>
       </c>
@@ -32853,13 +32254,13 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="41">
+      <c r="A26" s="33">
         <v>40753.696759259263</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="11">
         <v>2436</v>
       </c>
-      <c r="C26" s="42">
+      <c r="C26" s="34">
         <f t="shared" si="0"/>
         <v>1730</v>
       </c>
@@ -32893,13 +32294,13 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="41">
+      <c r="A27" s="33">
         <v>40787.515729166669</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="11">
         <v>1024</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="34">
         <f t="shared" si="0"/>
         <v>2012</v>
       </c>
@@ -32933,13 +32334,13 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="41">
+      <c r="A28" s="33">
         <v>40816.657048611109</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="11">
         <v>3000</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="34">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
@@ -32973,13 +32374,13 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="43">
+      <c r="A29" s="35">
         <v>40847.71234953704</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>3000</v>
       </c>
-      <c r="C29" s="42">
+      <c r="C29" s="34">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -33013,13 +32414,13 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="43">
+      <c r="A30" s="35">
         <v>40847.750578703701</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="11">
         <v>2000</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="34">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -33053,13 +32454,13 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="43">
+      <c r="A31" s="35">
         <v>40872.621377314812</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>3000</v>
       </c>
-      <c r="C31" s="42">
+      <c r="C31" s="34">
         <f t="shared" si="0"/>
         <v>3385</v>
       </c>
@@ -33093,13 +32494,13 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="43">
+      <c r="A32" s="35">
         <v>40872.621377314812</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>3770</v>
       </c>
-      <c r="C32" s="42">
+      <c r="C32" s="34">
         <f t="shared" si="0"/>
         <v>2885</v>
       </c>
@@ -33107,13 +32508,6 @@
         <f t="shared" si="1"/>
         <v>1770</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
       <c r="M32" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33140,13 +32534,13 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="41">
+      <c r="A33" s="33">
         <v>40879.397893518515</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>2000</v>
       </c>
-      <c r="C33" s="42">
+      <c r="C33" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33154,13 +32548,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
+      <c r="G33" s="8"/>
       <c r="M33" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33187,13 +32575,13 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="43">
+      <c r="A34" s="35">
         <v>40904.725312499999</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>2000</v>
       </c>
-      <c r="C34" s="42">
+      <c r="C34" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33201,13 +32589,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
       <c r="M34" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33234,13 +32615,13 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="43">
+      <c r="A35" s="35">
         <v>40904.725312499999</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="11">
         <v>2000</v>
       </c>
-      <c r="C35" s="42">
+      <c r="C35" s="34">
         <f t="shared" si="0"/>
         <v>3562</v>
       </c>
@@ -33248,13 +32629,6 @@
         <f t="shared" si="1"/>
         <v>3124</v>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
       <c r="M35" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33281,13 +32655,13 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="43">
+      <c r="A36" s="35">
         <v>40904.725312499999</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="11">
         <v>5124</v>
       </c>
-      <c r="C36" s="42">
+      <c r="C36" s="34">
         <f t="shared" si="0"/>
         <v>4062</v>
       </c>
@@ -33295,13 +32669,6 @@
         <f t="shared" si="1"/>
         <v>2124</v>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
       <c r="M36" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33328,13 +32695,13 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="43">
+      <c r="A37" s="35">
         <v>40904.999988425923</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="11">
         <v>3000</v>
       </c>
-      <c r="C37" s="42">
+      <c r="C37" s="34">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
@@ -33342,13 +32709,6 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
       <c r="M37" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33375,13 +32735,13 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="41">
+      <c r="A38" s="33">
         <v>40939.641516203701</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="11">
         <v>2200</v>
       </c>
-      <c r="C38" s="42">
+      <c r="C38" s="34">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
@@ -33389,13 +32749,6 @@
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
       <c r="M38" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33422,13 +32775,13 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="41">
+      <c r="A39" s="33">
         <v>40939.641516203701</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="11">
         <v>7000</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="34">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
@@ -33436,13 +32789,6 @@
         <f t="shared" si="1"/>
         <v>6200</v>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
       <c r="M39" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33469,13 +32815,13 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="41">
+      <c r="A40" s="33">
         <v>40940.539826388886</v>
       </c>
-      <c r="B40" s="42">
+      <c r="B40" s="34">
         <v>800</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="34">
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
@@ -33483,13 +32829,6 @@
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
       <c r="M40" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33516,13 +32855,13 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="41">
+      <c r="A41" s="33">
         <v>40967.607754629629</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="11">
         <v>5000</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="34">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
@@ -33530,13 +32869,6 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
       <c r="M41" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33563,13 +32895,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="41">
+      <c r="A42" s="33">
         <v>40998.741261574076</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="11">
         <v>2000</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33577,13 +32909,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
       <c r="M42" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33610,13 +32935,13 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="41">
+      <c r="A43" s="33">
         <v>40998.741261574076</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="11">
         <v>2000</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33624,13 +32949,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
       <c r="M43" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33657,13 +32975,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A44" s="41">
+      <c r="A44" s="33">
         <v>40998.741261574076</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="11">
         <v>2000</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33671,13 +32989,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
       <c r="M44" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33704,13 +33015,13 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="41">
+      <c r="A45" s="33">
         <v>40998.741400462961</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="11">
         <v>2000</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33718,13 +33029,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
       <c r="M45" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33751,13 +33055,13 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="41">
+      <c r="A46" s="33">
         <v>41026.604780092595</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="11">
         <v>2000</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -33765,13 +33069,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
       <c r="M46" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33798,13 +33095,13 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="41">
+      <c r="A47" s="33">
         <v>41060.686921296299</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="11">
         <v>2000</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="34">
         <f t="shared" si="0"/>
         <v>1205</v>
       </c>
@@ -33812,13 +33109,6 @@
         <f t="shared" si="1"/>
         <v>1590</v>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
       <c r="M47" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33845,13 +33135,13 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="41">
+      <c r="A48" s="33">
         <v>41060.702465277776</v>
       </c>
-      <c r="B48" s="42">
+      <c r="B48" s="34">
         <v>410</v>
       </c>
-      <c r="C48" s="42">
+      <c r="C48" s="34">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -33859,13 +33149,6 @@
         <f t="shared" si="1"/>
         <v>2180</v>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
       <c r="M48" s="6">
         <f t="shared" si="2"/>
         <v>3169.3676470588234</v>
@@ -33892,13 +33175,13 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="41">
+      <c r="A49" s="33">
         <v>41060.702465277776</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="11">
         <v>2590</v>
       </c>
-      <c r="C49" s="42">
+      <c r="C49" s="34">
         <f t="shared" si="0"/>
         <v>1764</v>
       </c>
@@ -33932,13 +33215,13 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="41">
+      <c r="A50" s="33">
         <v>41065.603993055556</v>
       </c>
-      <c r="B50" s="42">
+      <c r="B50" s="34">
         <v>938</v>
       </c>
-      <c r="C50" s="42">
+      <c r="C50" s="34">
         <f t="shared" si="0"/>
         <v>969</v>
       </c>
@@ -33972,13 +33255,13 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="41">
+      <c r="A51" s="33">
         <v>41088.721006944441</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="11">
         <v>1000</v>
       </c>
-      <c r="C51" s="42">
+      <c r="C51" s="34">
         <f t="shared" si="0"/>
         <v>1531</v>
       </c>
@@ -34012,13 +33295,13 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="41">
+      <c r="A52" s="33">
         <v>41088.721597222226</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="11">
         <v>2062</v>
       </c>
-      <c r="C52" s="42">
+      <c r="C52" s="34">
         <f t="shared" si="0"/>
         <v>1531</v>
       </c>
@@ -34052,13 +33335,13 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="41">
+      <c r="A53" s="33">
         <v>41088.721597222226</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="11">
         <v>1000</v>
       </c>
-      <c r="C53" s="42">
+      <c r="C53" s="34">
         <f t="shared" si="0"/>
         <v>1233</v>
       </c>
@@ -34092,13 +33375,13 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="41">
+      <c r="A54" s="33">
         <v>41101.689606481479</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="11">
         <v>1466</v>
       </c>
-      <c r="C54" s="42">
+      <c r="C54" s="34">
         <f t="shared" si="0"/>
         <v>1733</v>
       </c>
@@ -34132,13 +33415,13 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="41">
+      <c r="A55" s="33">
         <v>41121.621238425927</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="11">
         <v>2000</v>
       </c>
-      <c r="C55" s="42">
+      <c r="C55" s="34">
         <f t="shared" si="0"/>
         <v>1767</v>
       </c>
@@ -34172,13 +33455,13 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="41">
+      <c r="A56" s="33">
         <v>41121.621238425927</v>
       </c>
-      <c r="B56" s="18">
+      <c r="B56" s="11">
         <v>1534</v>
       </c>
-      <c r="C56" s="42">
+      <c r="C56" s="34">
         <f t="shared" si="0"/>
         <v>1929</v>
       </c>
@@ -34212,13 +33495,13 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="41">
+      <c r="A57" s="33">
         <v>41130.669629629629</v>
       </c>
-      <c r="B57" s="18">
+      <c r="B57" s="11">
         <v>2324</v>
       </c>
-      <c r="C57" s="42">
+      <c r="C57" s="34">
         <f t="shared" si="0"/>
         <v>2162</v>
       </c>
@@ -34252,13 +33535,13 @@
       </c>
     </row>
     <row r="58" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="41">
+      <c r="A58" s="33">
         <v>41141.577719907407</v>
       </c>
-      <c r="B58" s="18">
+      <c r="B58" s="11">
         <v>2000</v>
       </c>
-      <c r="C58" s="42">
+      <c r="C58" s="34">
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
@@ -34292,13 +33575,13 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="41">
+      <c r="A59" s="33">
         <v>41141.584849537037</v>
       </c>
-      <c r="B59" s="42">
+      <c r="B59" s="34">
         <v>676</v>
       </c>
-      <c r="C59" s="42">
+      <c r="C59" s="34">
         <f t="shared" si="0"/>
         <v>1838</v>
       </c>
@@ -34332,13 +33615,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="41">
+      <c r="A60" s="33">
         <v>41155.534201388888</v>
       </c>
-      <c r="B60" s="18">
+      <c r="B60" s="11">
         <v>3000</v>
       </c>
-      <c r="C60" s="42">
+      <c r="C60" s="34">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -34372,13 +33655,13 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="41">
+      <c r="A61" s="33">
         <v>41183.476678240739</v>
       </c>
-      <c r="B61" s="18">
+      <c r="B61" s="11">
         <v>5000</v>
       </c>
-      <c r="C61" s="42">
+      <c r="C61" s="34">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
@@ -34412,13 +33695,13 @@
       </c>
     </row>
     <row r="62" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="41">
+      <c r="A62" s="33">
         <v>41183.503483796296</v>
       </c>
-      <c r="B62" s="18">
+      <c r="B62" s="11">
         <v>3000</v>
       </c>
-      <c r="C62" s="42">
+      <c r="C62" s="34">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
@@ -34452,13 +33735,13 @@
       </c>
     </row>
     <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="41">
+      <c r="A63" s="33">
         <v>41183.503483796296</v>
       </c>
-      <c r="B63" s="18">
+      <c r="B63" s="11">
         <v>2000</v>
       </c>
-      <c r="C63" s="42">
+      <c r="C63" s="34">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
@@ -34492,13 +33775,13 @@
       </c>
     </row>
     <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="43">
+      <c r="A64" s="35">
         <v>41208.654131944444</v>
       </c>
-      <c r="B64" s="18">
+      <c r="B64" s="11">
         <v>2000</v>
       </c>
-      <c r="C64" s="42">
+      <c r="C64" s="34">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -34532,13 +33815,13 @@
       </c>
     </row>
     <row r="65" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="41">
+      <c r="A65" s="33">
         <v>41215.678726851853</v>
       </c>
-      <c r="B65" s="18">
+      <c r="B65" s="11">
         <v>1000</v>
       </c>
-      <c r="C65" s="42">
+      <c r="C65" s="34">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
@@ -34572,13 +33855,13 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="43">
+      <c r="A66" s="35">
         <v>41234.724479166667</v>
       </c>
-      <c r="B66" s="18">
+      <c r="B66" s="11">
         <v>2000</v>
       </c>
-      <c r="C66" s="42">
+      <c r="C66" s="34">
         <f t="shared" si="0"/>
         <v>2385</v>
       </c>
@@ -34612,13 +33895,13 @@
       </c>
     </row>
     <row r="67" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="43">
+      <c r="A67" s="35">
         <v>41234.724479166667</v>
       </c>
-      <c r="B67" s="18">
+      <c r="B67" s="11">
         <v>2770</v>
       </c>
-      <c r="C67" s="42">
+      <c r="C67" s="34">
         <f t="shared" ref="C67:C69" si="7">AVERAGE(B67:B68)</f>
         <v>2382</v>
       </c>
@@ -34652,13 +33935,13 @@
       </c>
     </row>
     <row r="68" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="43">
+      <c r="A68" s="35">
         <v>41242.633634259262</v>
       </c>
-      <c r="B68" s="18">
+      <c r="B68" s="11">
         <v>1994</v>
       </c>
-      <c r="C68" s="42">
+      <c r="C68" s="34">
         <f t="shared" si="7"/>
         <v>2500</v>
       </c>
@@ -34692,13 +33975,13 @@
       </c>
     </row>
     <row r="69" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="43">
+      <c r="A69" s="35">
         <v>41268.547743055555</v>
       </c>
-      <c r="B69" s="18">
+      <c r="B69" s="11">
         <v>3006</v>
       </c>
-      <c r="C69" s="42">
+      <c r="C69" s="34">
         <f t="shared" si="7"/>
         <v>3006</v>
       </c>
@@ -34799,65 +34082,65 @@
   </sheetPr>
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17">
+      <c r="A2" s="10">
         <v>40332</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="11">
         <v>14987.5</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="12">
         <f>AVERAGE(B2:B3)</f>
         <v>9493.75</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="36">
         <f>AVERAGE(C2:C55)</f>
         <v>10384.393518518518</v>
       </c>
@@ -34865,19 +34148,19 @@
         <f>ABS(B2-B3)</f>
         <v>10987.5</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="37">
         <f>AVERAGE(E2:E55)</f>
         <v>7880.1944444444443</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="19">
+      <c r="G2" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="12">
         <f>$D$2</f>
         <v>10384.393518518518</v>
       </c>
@@ -34903,13 +34186,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17">
+      <c r="A3" s="10">
         <v>40359</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="11">
         <v>4000</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="12">
         <f t="shared" ref="C3:C55" si="0">AVERAGE(B3:B4)</f>
         <v>7270</v>
       </c>
@@ -34917,13 +34200,13 @@
         <f t="shared" ref="E3:E55" si="1">ABS(B3-B4)</f>
         <v>6540</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="19">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="12">
         <f t="shared" ref="M3:M56" si="2">$D$2</f>
         <v>10384.393518518518</v>
       </c>
@@ -34949,13 +34232,13 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17">
+      <c r="A4" s="10">
         <v>40373</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="11">
         <v>10540</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="12">
         <f t="shared" si="0"/>
         <v>6070</v>
       </c>
@@ -34963,13 +34246,13 @@
         <f t="shared" si="1"/>
         <v>8940</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="19">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -34995,13 +34278,13 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17">
+      <c r="A5" s="10">
         <v>40373</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="11">
         <v>1600</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="12">
         <f t="shared" si="0"/>
         <v>6800</v>
       </c>
@@ -35009,13 +34292,13 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="19">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35041,13 +34324,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17">
+      <c r="A6" s="10">
         <v>40378</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="11">
         <v>12000</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
@@ -35055,13 +34338,13 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="19">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35087,13 +34370,13 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17">
+      <c r="A7" s="10">
         <v>40413</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="11">
         <v>10000</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="12">
         <f t="shared" si="0"/>
         <v>7750</v>
       </c>
@@ -35101,13 +34384,13 @@
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="19">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35133,13 +34416,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17">
+      <c r="A8" s="10">
         <v>40448</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="11">
         <v>5500</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="12">
         <f t="shared" si="0"/>
         <v>7250</v>
       </c>
@@ -35147,13 +34430,13 @@
         <f t="shared" si="1"/>
         <v>3500</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="19">
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35179,13 +34462,13 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="20">
+      <c r="A9" s="13">
         <v>40473</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="11">
         <v>9000</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="12">
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
@@ -35193,13 +34476,13 @@
         <f t="shared" si="1"/>
         <v>51000</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="19">
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35225,13 +34508,13 @@
       </c>
     </row>
     <row r="10" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <v>40505</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="11">
         <v>60000</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="12">
         <f t="shared" si="0"/>
         <v>30600</v>
       </c>
@@ -35239,13 +34522,13 @@
         <f t="shared" si="1"/>
         <v>58800</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="19">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35271,13 +34554,13 @@
       </c>
     </row>
     <row r="11" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17">
+      <c r="A11" s="10">
         <v>40584</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="11">
         <v>1200</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="12">
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
@@ -35285,7 +34568,7 @@
         <f t="shared" si="1"/>
         <v>4600</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35311,13 +34594,13 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17">
+      <c r="A12" s="10">
         <v>40584</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="11">
         <v>5800</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="12">
         <f t="shared" si="0"/>
         <v>19070.5</v>
       </c>
@@ -35325,7 +34608,7 @@
         <f t="shared" si="1"/>
         <v>26541</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M12" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35351,13 +34634,13 @@
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17">
+      <c r="A13" s="10">
         <v>40633</v>
       </c>
-      <c r="B13" s="18">
+      <c r="B13" s="11">
         <v>32341</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
         <v>23794.5</v>
       </c>
@@ -35365,7 +34648,7 @@
         <f t="shared" si="1"/>
         <v>17093</v>
       </c>
-      <c r="M13" s="19">
+      <c r="M13" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35391,13 +34674,13 @@
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="17">
+      <c r="A14" s="10">
         <v>40675</v>
       </c>
-      <c r="B14" s="18">
+      <c r="B14" s="11">
         <v>15248</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
         <v>12474</v>
       </c>
@@ -35405,7 +34688,7 @@
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
-      <c r="M14" s="19">
+      <c r="M14" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35431,13 +34714,13 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17">
+      <c r="A15" s="10">
         <v>40693</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="11">
         <v>9700</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="12">
         <f t="shared" si="0"/>
         <v>14600</v>
       </c>
@@ -35445,7 +34728,7 @@
         <f t="shared" si="1"/>
         <v>9800</v>
       </c>
-      <c r="M15" s="19">
+      <c r="M15" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35471,13 +34754,13 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="17">
+      <c r="A16" s="10">
         <v>40724</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="11">
         <v>19500</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>14750</v>
       </c>
@@ -35485,7 +34768,7 @@
         <f t="shared" si="1"/>
         <v>9500</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35511,13 +34794,13 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="17">
+      <c r="A17" s="10">
         <v>40780</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="11">
         <v>10000</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="12">
         <f t="shared" si="0"/>
         <v>10250</v>
       </c>
@@ -35525,7 +34808,7 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35551,13 +34834,13 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="17">
+      <c r="A18" s="10">
         <v>40799</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="11">
         <v>10500</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="12">
         <f t="shared" si="0"/>
         <v>10250</v>
       </c>
@@ -35565,7 +34848,7 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35591,13 +34874,13 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20">
+      <c r="A19" s="13">
         <v>40847</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="11">
         <v>10000</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="12">
         <f t="shared" si="0"/>
         <v>14020</v>
       </c>
@@ -35605,7 +34888,7 @@
         <f t="shared" si="1"/>
         <v>8040</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35631,13 +34914,13 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20">
+      <c r="A20" s="13">
         <v>40877</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="11">
         <v>18040</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="12">
         <f t="shared" si="0"/>
         <v>15500</v>
       </c>
@@ -35645,7 +34928,7 @@
         <f t="shared" si="1"/>
         <v>5080</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35671,13 +34954,13 @@
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="17">
+      <c r="A21" s="10">
         <v>40925</v>
       </c>
-      <c r="B21" s="18">
+      <c r="B21" s="11">
         <v>12960</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="12">
         <f t="shared" si="0"/>
         <v>9980</v>
       </c>
@@ -35685,7 +34968,7 @@
         <f t="shared" si="1"/>
         <v>5960</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35711,13 +34994,13 @@
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="17">
+      <c r="A22" s="10">
         <v>40925</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="11">
         <v>7000</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="12">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
@@ -35725,7 +35008,7 @@
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="M22" s="19">
+      <c r="M22" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35751,13 +35034,13 @@
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="17">
+      <c r="A23" s="10">
         <v>40931</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="11">
         <v>5000</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="12">
         <f t="shared" si="0"/>
         <v>13093.75</v>
       </c>
@@ -35765,7 +35048,7 @@
         <f t="shared" si="1"/>
         <v>16187.5</v>
       </c>
-      <c r="M23" s="19">
+      <c r="M23" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35791,13 +35074,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="17">
+      <c r="A24" s="10">
         <v>40931</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="11">
         <v>21187.5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="12">
         <f t="shared" si="0"/>
         <v>11741.25</v>
       </c>
@@ -35805,7 +35088,7 @@
         <f t="shared" si="1"/>
         <v>18892.5</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35831,13 +35114,13 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="17">
+      <c r="A25" s="10">
         <v>40941</v>
       </c>
-      <c r="B25" s="18">
+      <c r="B25" s="11">
         <v>2295</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="12">
         <f t="shared" si="0"/>
         <v>5647.5</v>
       </c>
@@ -35845,7 +35128,7 @@
         <f t="shared" si="1"/>
         <v>6705</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35871,13 +35154,13 @@
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="17">
+      <c r="A26" s="10">
         <v>40961</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="11">
         <v>9000</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="12">
         <f t="shared" si="0"/>
         <v>6000</v>
       </c>
@@ -35885,7 +35168,7 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35911,13 +35194,13 @@
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="17">
+      <c r="A27" s="10">
         <v>40968</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="11">
         <v>3000</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="12">
         <f t="shared" si="0"/>
         <v>4620</v>
       </c>
@@ -35925,7 +35208,7 @@
         <f t="shared" si="1"/>
         <v>3240</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35951,13 +35234,13 @@
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17">
+      <c r="A28" s="10">
         <v>40969</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="11">
         <v>6240</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="12">
         <f t="shared" si="0"/>
         <v>7520</v>
       </c>
@@ -35965,7 +35248,7 @@
         <f t="shared" si="1"/>
         <v>2560</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -35991,13 +35274,13 @@
       </c>
     </row>
     <row r="29" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17">
+      <c r="A29" s="10">
         <v>40970</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="11">
         <v>8800</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="12">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -36005,7 +35288,7 @@
         <f t="shared" si="1"/>
         <v>7600</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36031,13 +35314,13 @@
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17">
+      <c r="A30" s="10">
         <v>40974</v>
       </c>
-      <c r="B30" s="18">
+      <c r="B30" s="11">
         <v>1200</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="12">
         <f t="shared" si="0"/>
         <v>4600</v>
       </c>
@@ -36045,7 +35328,7 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36071,13 +35354,13 @@
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17">
+      <c r="A31" s="10">
         <v>40980</v>
       </c>
-      <c r="B31" s="18">
+      <c r="B31" s="11">
         <v>8000</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="12">
         <f t="shared" si="0"/>
         <v>7900</v>
       </c>
@@ -36085,7 +35368,7 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36111,13 +35394,13 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17">
+      <c r="A32" s="10">
         <v>41005</v>
       </c>
-      <c r="B32" s="18">
+      <c r="B32" s="11">
         <v>7800</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="12">
         <f t="shared" si="0"/>
         <v>7499</v>
       </c>
@@ -36125,13 +35408,8 @@
         <f t="shared" si="1"/>
         <v>602</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="19">
+      <c r="G32" s="8"/>
+      <c r="M32" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36157,13 +35435,13 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17">
+      <c r="A33" s="10">
         <v>41015</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="11">
         <v>7198</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="12">
         <f t="shared" si="0"/>
         <v>5099</v>
       </c>
@@ -36171,13 +35449,7 @@
         <f t="shared" si="1"/>
         <v>4198</v>
       </c>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="19">
+      <c r="M33" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36203,13 +35475,13 @@
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17">
+      <c r="A34" s="10">
         <v>41016</v>
       </c>
-      <c r="B34" s="18">
+      <c r="B34" s="11">
         <v>3000</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="12">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
@@ -36217,13 +35489,7 @@
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="19">
+      <c r="M34" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36249,13 +35515,13 @@
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17">
+      <c r="A35" s="10">
         <v>41034</v>
       </c>
-      <c r="B35" s="18">
+      <c r="B35" s="11">
         <v>7000</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="12">
         <f t="shared" si="0"/>
         <v>9800</v>
       </c>
@@ -36263,13 +35529,7 @@
         <f t="shared" si="1"/>
         <v>5600</v>
       </c>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="19">
+      <c r="M35" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36295,13 +35555,13 @@
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17">
+      <c r="A36" s="10">
         <v>41066</v>
       </c>
-      <c r="B36" s="18">
+      <c r="B36" s="11">
         <v>12600</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="12">
         <f t="shared" si="0"/>
         <v>8050</v>
       </c>
@@ -36309,13 +35569,7 @@
         <f t="shared" si="1"/>
         <v>9100</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="19">
+      <c r="M36" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36341,13 +35595,13 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17">
+      <c r="A37" s="10">
         <v>41100</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="11">
         <v>3500</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="12">
         <f t="shared" si="0"/>
         <v>6200</v>
       </c>
@@ -36355,13 +35609,7 @@
         <f t="shared" si="1"/>
         <v>5400</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="19">
+      <c r="M37" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36387,13 +35635,13 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17">
+      <c r="A38" s="10">
         <v>41128</v>
       </c>
-      <c r="B38" s="18">
+      <c r="B38" s="11">
         <v>8900</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="12">
         <f t="shared" si="0"/>
         <v>5607.5</v>
       </c>
@@ -36401,13 +35649,7 @@
         <f t="shared" si="1"/>
         <v>6585</v>
       </c>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="19">
+      <c r="M38" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36433,13 +35675,13 @@
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17">
+      <c r="A39" s="10">
         <v>41128</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="11">
         <v>2315</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="12">
         <f t="shared" si="0"/>
         <v>5777.5</v>
       </c>
@@ -36447,13 +35689,7 @@
         <f t="shared" si="1"/>
         <v>6925</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="19">
+      <c r="M39" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36479,13 +35715,13 @@
       </c>
     </row>
     <row r="40" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17">
+      <c r="A40" s="10">
         <v>41128</v>
       </c>
-      <c r="B40" s="18">
+      <c r="B40" s="11">
         <v>9240</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="12">
         <f t="shared" si="0"/>
         <v>7970</v>
       </c>
@@ -36493,13 +35729,7 @@
         <f t="shared" si="1"/>
         <v>2540</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="19">
+      <c r="M40" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36525,13 +35755,13 @@
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17">
+      <c r="A41" s="10">
         <v>41137</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="11">
         <v>6700</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="12">
         <f t="shared" si="0"/>
         <v>7970</v>
       </c>
@@ -36539,13 +35769,7 @@
         <f t="shared" si="1"/>
         <v>2540</v>
       </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="19">
+      <c r="M41" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36571,13 +35795,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17">
+      <c r="A42" s="10">
         <v>41143</v>
       </c>
-      <c r="B42" s="18">
+      <c r="B42" s="11">
         <v>9240</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="12">
         <f t="shared" si="0"/>
         <v>9240</v>
       </c>
@@ -36585,13 +35809,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="19">
+      <c r="M42" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36617,13 +35835,13 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17">
+      <c r="A43" s="10">
         <v>41143</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="11">
         <v>9240</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="12">
         <f t="shared" si="0"/>
         <v>10020</v>
       </c>
@@ -36631,13 +35849,7 @@
         <f t="shared" si="1"/>
         <v>1560</v>
       </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="19">
+      <c r="M43" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36663,13 +35875,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17">
+      <c r="A44" s="10">
         <v>41150</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44" s="11">
         <v>10800</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="12">
         <f t="shared" si="0"/>
         <v>10020</v>
       </c>
@@ -36677,13 +35889,7 @@
         <f t="shared" si="1"/>
         <v>1560</v>
       </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="19">
+      <c r="M44" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36709,13 +35915,13 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17">
+      <c r="A45" s="10">
         <v>41150</v>
       </c>
-      <c r="B45" s="18">
+      <c r="B45" s="11">
         <v>9240</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="12">
         <f t="shared" si="0"/>
         <v>9620</v>
       </c>
@@ -36723,13 +35929,7 @@
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="19">
+      <c r="M45" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36755,13 +35955,13 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17">
+      <c r="A46" s="10">
         <v>41176</v>
       </c>
-      <c r="B46" s="18">
+      <c r="B46" s="11">
         <v>10000</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="12">
         <f t="shared" si="0"/>
         <v>10008</v>
       </c>
@@ -36769,7 +35969,7 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36795,13 +35995,13 @@
       </c>
     </row>
     <row r="47" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17">
+      <c r="A47" s="10">
         <v>41176</v>
       </c>
-      <c r="B47" s="18">
+      <c r="B47" s="11">
         <v>10016</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="12">
         <f t="shared" si="0"/>
         <v>9228</v>
       </c>
@@ -36809,7 +36009,7 @@
         <f t="shared" si="1"/>
         <v>1576</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36835,13 +36035,13 @@
       </c>
     </row>
     <row r="48" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17">
+      <c r="A48" s="10">
         <v>41184</v>
       </c>
-      <c r="B48" s="18">
+      <c r="B48" s="11">
         <v>8440</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="12">
         <f t="shared" si="0"/>
         <v>9320</v>
       </c>
@@ -36849,7 +36049,7 @@
         <f t="shared" si="1"/>
         <v>1760</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36875,13 +36075,13 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17">
+      <c r="A49" s="10">
         <v>41184</v>
       </c>
-      <c r="B49" s="18">
+      <c r="B49" s="11">
         <v>10200</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="12">
         <f t="shared" si="0"/>
         <v>11600</v>
       </c>
@@ -36889,7 +36089,7 @@
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36915,13 +36115,13 @@
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="20">
+      <c r="A50" s="13">
         <v>41198</v>
       </c>
-      <c r="B50" s="18">
+      <c r="B50" s="11">
         <v>13000</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="12">
         <f t="shared" si="0"/>
         <v>19085</v>
       </c>
@@ -36929,7 +36129,7 @@
         <f t="shared" si="1"/>
         <v>12170</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36955,13 +36155,13 @@
       </c>
     </row>
     <row r="51" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="20">
+      <c r="A51" s="13">
         <v>41198</v>
       </c>
-      <c r="B51" s="18">
+      <c r="B51" s="11">
         <v>25170</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="12">
         <f t="shared" si="0"/>
         <v>17670</v>
       </c>
@@ -36969,7 +36169,7 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-      <c r="M51" s="19">
+      <c r="M51" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -36995,13 +36195,13 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="20">
+      <c r="A52" s="13">
         <v>41198</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="11">
         <v>10170</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="12">
         <f t="shared" si="0"/>
         <v>10170</v>
       </c>
@@ -37009,7 +36209,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M52" s="19">
+      <c r="M52" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -37035,13 +36235,13 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="20">
+      <c r="A53" s="13">
         <v>41198</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="11">
         <v>10170</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="12">
         <f t="shared" si="0"/>
         <v>7421.5</v>
       </c>
@@ -37049,7 +36249,7 @@
         <f t="shared" si="1"/>
         <v>5497</v>
       </c>
-      <c r="M53" s="19">
+      <c r="M53" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -37075,13 +36275,13 @@
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="20">
+      <c r="A54" s="13">
         <v>41229</v>
       </c>
-      <c r="B54" s="18">
+      <c r="B54" s="11">
         <v>4673</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="12">
         <f t="shared" si="0"/>
         <v>7336.5</v>
       </c>
@@ -37089,7 +36289,7 @@
         <f t="shared" si="1"/>
         <v>5327</v>
       </c>
-      <c r="M54" s="19">
+      <c r="M54" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -37115,13 +36315,13 @@
       </c>
     </row>
     <row r="55" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20">
+      <c r="A55" s="13">
         <v>41229</v>
       </c>
-      <c r="B55" s="18">
+      <c r="B55" s="11">
         <v>10000</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
@@ -37129,7 +36329,7 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="M55" s="19">
+      <c r="M55" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -37155,9 +36355,9 @@
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
-      <c r="M56" s="19">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="M56" s="12">
         <f t="shared" si="2"/>
         <v>10384.393518518518</v>
       </c>
@@ -37183,60 +36383,59 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
-      <c r="B57" s="46"/>
+      <c r="B57" s="38"/>
     </row>
     <row r="58" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="46"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
     </row>
     <row r="60" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
     </row>
     <row r="61" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
     </row>
     <row r="62" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="46"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
     </row>
     <row r="63" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
     </row>
     <row r="64" spans="1:19" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="46"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
     </row>
     <row r="65" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="46"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
     </row>
     <row r="66" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="46"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
     </row>
     <row r="67" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="46"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
     </row>
     <row r="68" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="46"/>
-      <c r="B68" s="46"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
     </row>
     <row r="69" spans="1:2" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="46"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
